--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,72 +434,51 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>domains</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>www.facebook.com</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>486000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>www.coursera.org</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>278000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>www.google.com</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>10800000</v>
+      <c r="B4" t="n">
+        <v>10900000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>www.facebook.com</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>524000000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>www.wikipedia.com</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>30900</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>www.coursera.org</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>337000</v>
+      <c r="B5" t="n">
+        <v>31000</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -444,31 +444,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>www.facebook.com</t>
+          <t>www.coursera.org</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>486000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>www.coursera.org</t>
+          <t>www.google.com</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278000</v>
+        <v>11400000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>www.google.com</t>
+          <t>www.facebook.com</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10900000</v>
+        <v>492000000</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31000</v>
+        <v>27900</v>
       </c>
     </row>
   </sheetData>
